--- a/Report Components/HAZOP Senior Design.xlsx
+++ b/Report Components/HAZOP Senior Design.xlsx
@@ -45,12 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Process Name: rPET Extruder</t>
   </si>
   <si>
-    <t xml:space="preserve">Node Analyzed: Extrudeer </t>
+    <t xml:space="preserve">Node Analyzed: Extruder </t>
   </si>
   <si>
     <t>Intetion:</t>
@@ -80,22 +80,25 @@
     <t>No flow through screw</t>
   </si>
   <si>
-    <t>Operator runs extruder without adding pellets to hopper</t>
-  </si>
-  <si>
-    <t>Galling; unbalanced pressure</t>
-  </si>
-  <si>
-    <t>Interlock with pressure sensor threshold alarm to shut down the extruder</t>
+    <t>Operator runs extruder without adding pellets to hopper; pellets clump together because of lack of heating</t>
+  </si>
+  <si>
+    <t>Galling may occur in which the metal screw and the metal barrel come into contact, causing damage to both. Pellet clumping may force the screw to become uncentered in which contact between the screw and barrel wall may occur too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User manual outlines proper operational protocol; shear plate will break if pressure is too high, stopping screw from turning; operator shuts down machine via emergency stop button. </t>
   </si>
   <si>
     <t>No heating element around screw</t>
   </si>
   <si>
-    <t>Heating connections loose</t>
-  </si>
-  <si>
-    <t>Pellets do not get melted in the screw, prohibiting them from being melted. Pressure builds up in the screw.</t>
+    <t>Heating connections become loose; heater breaks</t>
+  </si>
+  <si>
+    <t>Pellets do not completely melt. Pressure builds up in the barrel. PET crystallizes on the barrel wall.</t>
+  </si>
+  <si>
+    <t>PID controllers are programmed with a minimum set temperature of 240 C; shear plate will break if pressure is too high and the break will be audible, allowing the operator shuts down machine via emergency stop button.</t>
   </si>
   <si>
     <t>Other Than</t>
@@ -104,13 +107,13 @@
     <t xml:space="preserve">Other than PET pellets </t>
   </si>
   <si>
-    <t>Foreign objects accidentlly dropped into hopper</t>
-  </si>
-  <si>
-    <t>Foreign materials can damage the screw and inner walls of the barrel. They can also affect the material properties and usability of the filament (product). They can prevent the flow in the screw, resulting in pressure build up in the screw and no product being extruded.</t>
-  </si>
-  <si>
-    <t>Visual inspection of feed into the hopper, monitorig pressure and temperature sensors</t>
+    <t>Foreign objects are accidentally dropped into hopper, which can damage the machinery and disrupt the process; Foreign objects like hair, clothing, or fingers get caught in the rotating screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign materials can damage the screw and inner walls of the barrel. They can also affect the material properties and usability of the filament (product). They can prevent the flow in the screw, resulting in pressure build up in the screw and no product being extruded. Extreme damage and injuries can occur to the operator or whoever the foreign objects belong to, due to the power of the rotating machinery </t>
+  </si>
+  <si>
+    <t>Visual inspection of feed into the hopper, monitoring pressure and temperature sensors, metal detection of final product; operators or others on standby shut down the machine via emergency stop button and disconnect the power from the wall; user manual outlining safe attire and operation protocol.</t>
   </si>
   <si>
     <t>More</t>
@@ -119,13 +122,13 @@
     <t>More heating around screw</t>
   </si>
   <si>
-    <t>Heating unit not regulated or heating power set too high</t>
-  </si>
-  <si>
-    <t>Upstream disruptances from PET pellet source, weather, storage of pellets</t>
-  </si>
-  <si>
-    <t>Interlock with temperature sensor threhold alarm to shut down the extruder</t>
+    <t>Heating unit not regulated; temperature PID set value is too high</t>
+  </si>
+  <si>
+    <t>Shear plate will break if pressure is too high and the break will be audible, allowing the operator shuts down machine via emergency stop button</t>
+  </si>
+  <si>
+    <t>PID controllers are programmed with a maximum set temperature of 270 C; in case of malfunction, operator shuts down machine via emergency stop button.</t>
   </si>
   <si>
     <t>As Well As</t>
@@ -140,7 +143,7 @@
     <t>Operators risk getting burned. The loss of heating may affect the material property of the filament. The loss of heating may change the flow viscosity in the screw, requiring more work from the motor than capable.</t>
   </si>
   <si>
-    <t>Visual inspection of the external extruder housing, temperature sensor measureing the temperature of the filament at the die/air interface</t>
+    <t>Visual inspection of the external extruder housing, temperature sensor measuring the temperature of the filament at the die/air interface, fiberglass insulation surrounding the barrel.</t>
   </si>
   <si>
     <t>As well as exposed electrical components</t>
@@ -152,19 +155,49 @@
     <t>Operators risk electrocution. Damage can occur to the electric components, potentially damaging the extruder system as a whole</t>
   </si>
   <si>
-    <t>Visual inspection of hte external extruder housing, visual inspection of external sensors for proper measurements</t>
+    <t>Visual inspection of the external extruder housing, visual inspection of external sensors for proper measurements.</t>
   </si>
   <si>
     <t>More moisture in the pellets</t>
   </si>
   <si>
-    <t>Upstream disruptances from PET pellet source, weather</t>
-  </si>
-  <si>
-    <t>Water in or around the pellets will boil, causing cosmetic changes in the filament. Die exit speed is changed</t>
-  </si>
-  <si>
-    <t>Water activity test of a few pellets from each batch</t>
+    <t>Upstream disruptions from PET pellet source; weather</t>
+  </si>
+  <si>
+    <t>Water in or around the pellets will boil, causing cosmetic changes in the filament. Die exit speed is changed. Bridging may occur in the hopper in which the pellets form aggregations and block the flow of material from the hopper to the barrel.</t>
+  </si>
+  <si>
+    <t>Water activity test of a few pellets from each batch.</t>
+  </si>
+  <si>
+    <t>Part Of</t>
+  </si>
+  <si>
+    <t>Part of barrel wall thickness decreases</t>
+  </si>
+  <si>
+    <t>Wear to the barrel over time from continuous melted pellet flow, screw becomes unbalanced and scrapes against the inner wall surface</t>
+  </si>
+  <si>
+    <t>Pressure rating for barrel will become inaccurate. The barrel will not be able to handle as much internal pressure, which could result in a rupture.</t>
+  </si>
+  <si>
+    <t>Shear plate will break if pressure is too high and the break will be audible, allowing the operator shuts down machine via emergency stop button. Bearing on the end of the screw ensures stability and prevents scraping.</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>Less air flow from fans</t>
+  </si>
+  <si>
+    <t>Fans not set to adequate speed, one or multiple fan connections become loose</t>
+  </si>
+  <si>
+    <t>Temperature inside the housing will exceed operatable threshold, which may result in electron malfunction and changes in product's material properties.</t>
+  </si>
+  <si>
+    <t>Interlock with temperature sensor threshold if the internal temperature of the extruder exceeds upper set point limit.</t>
   </si>
 </sst>
 </file>
@@ -216,25 +249,25 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -460,7 +493,7 @@
     <col customWidth="1" min="2" max="2" width="32.0"/>
     <col customWidth="1" min="3" max="3" width="29.13"/>
     <col customWidth="1" min="4" max="4" width="25.13"/>
-    <col customWidth="1" min="5" max="5" width="18.88"/>
+    <col customWidth="1" min="5" max="5" width="22.63"/>
     <col customWidth="1" min="9" max="9" width="66.5"/>
   </cols>
   <sheetData>
@@ -471,179 +504,214 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="64.5" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="99.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="122.25" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="8"/>
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="8"/>
